--- a/数据整理/stocks/A股/深证主板/000999-华润三九.xlsx
+++ b/数据整理/stocks/A股/深证主板/000999-华润三九.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.90</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.68</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.90</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.68</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.77</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.63</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501012</t>
+          <t>005505</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证中药指数（LOF）C</t>
+          <t>前海开源中药研究精选股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008618</t>
+          <t>005506</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>永赢医药健康股票A</t>
+          <t>前海开源中药研究精选股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.77</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -678,25 +748,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008619</t>
+          <t>008618</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>永赢医药健康股票C</t>
+          <t>永赢医药健康股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>89.77</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2.89</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -706,26 +786,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005505</t>
+          <t>501012</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源中药研究精选股票A</t>
+          <t>汇添富中证中药指数（LOF）C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>85.03</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.76</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -734,26 +824,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005506</t>
+          <t>008619</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源中药研究精选股票C</t>
+          <t>永赢医药健康股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>85.03</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.76</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000999-华润三九.xlsx
+++ b/数据整理/stocks/A股/深证主板/000999-华润三九.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000999-华润三九.xlsx
+++ b/数据整理/stocks/A股/深证主板/000999-华润三九.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1106,4 +1107,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2254</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1985</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009992</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城量化成长演化混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000999-华润三九.xlsx
+++ b/数据整理/stocks/A股/深证主板/000999-华润三九.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1619,4 +1620,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000999-华润三九.xlsx
+++ b/数据整理/stocks/A股/深证主板/000999-华润三九.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1628,7 +1629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1639,17 +1640,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1659,14 +1680,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.8</v>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0311</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1675,14 +1718,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.19</v>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>61.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5007</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1691,14 +1756,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.18</v>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4856</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1707,13 +1794,1139 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>012888</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>62.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4849</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3735</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3289</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2191</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1910</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010137</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1539</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1437</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012889</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>62.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010303</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010304</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010138</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>44.28</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>44.28</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000999-华润三九.xlsx
+++ b/数据整理/stocks/A股/深证主板/000999-华润三九.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2825,7 +2826,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2836,17 +2837,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2856,14 +2877,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.59</v>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>180.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.7992</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2872,14 +2915,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.8</v>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2380</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2888,14 +2953,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.19</v>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8100</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2904,14 +2991,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.18</v>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信医疗保健行业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3608</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2920,13 +3029,4613 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>006002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3026</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2584</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1660</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>29.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1163</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9690</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9193</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8783</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012888</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7366</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6545</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>72.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6463</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6278</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010393</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.91</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5547</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012284</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>光大保德信健康优加混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4782</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4460</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4430</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4402</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4205</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3981</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3913</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006003</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3811</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3243</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001716</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3243</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3190</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2476</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2394</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2270</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>13.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2266</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2188</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2038</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>162207</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰达宏利效率优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1938</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012045</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1863</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>32.99</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1792</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1631</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1528</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001170</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011601</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>32.99</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010394</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>561550</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001715</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银瑞信新焦点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>82.17</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>72.98</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012889</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>76.39</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005067</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>61.05</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001997</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010137</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>59.84</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>970067</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>65.86</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011602</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>014344</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010303</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005293</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>诺德新旺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>75.04</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007481</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>77.27</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001998</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>工银瑞信新焦点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002049</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>融通新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>35.76</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002605</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>融通新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>26.95</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001470</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>融通通鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>30.20</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>012046</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>大成医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>970068</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟消费升级混合B</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>65.86</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>014345</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>006084</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>融通研究优选混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>004549</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>富安达消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>710002</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>富安达策略精选混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>63.45</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010304</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>014157</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>国泰君安创新医药混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>014285</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>33.76</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>970069</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>65.86</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010138</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>014286</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>33.76</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>002773</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>009270</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>61.05</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>002774</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>001657</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>长安鑫富领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>30.32</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>122</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000999-华润三九.xlsx
+++ b/数据整理/stocks/A股/深证主板/000999-华润三九.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7518,7 +7519,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7529,17 +7530,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7549,14 +7570,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>122</v>
-      </c>
-      <c r="D2" t="n">
-        <v>32.77</v>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>177.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.2252</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -7565,14 +7608,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>30</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.59</v>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信医疗保健行业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4733</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -7581,14 +7646,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.8</v>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2208</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -7597,14 +7684,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.19</v>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7973</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -7613,14 +7722,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.18</v>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5394</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -7629,13 +7760,2993 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3479</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2546</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9870</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8277</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012888</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8228</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7746</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6785</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6494</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010393</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6095</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5065</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.28</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4753</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012284</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>光大保德信健康优加混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.93</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4750</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006003</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4381</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3897</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3069</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2904</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2878</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2801</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2378</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1962</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1651</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011948</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1537</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012238</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1373</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1348</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.77</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1343</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010394</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013940</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东吴医疗服务股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>37.15</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012889</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>37.15</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001715</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银瑞信新焦点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>69.86</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010137</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013941</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东吴医疗服务股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010303</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001998</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>工银瑞信新焦点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>710002</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富安达策略精选混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>73.83</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010304</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002773</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010138</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>015139</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>泰康医疗健康股票A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>002774</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>015140</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>泰康医疗健康股票C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>69.86</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>80</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>122</v>
+      </c>
+      <c r="D3" t="n">
+        <v>32.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000999-华润三九.xlsx
+++ b/数据整理/stocks/A股/深证主板/000999-华润三九.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D2" t="n">
-        <v>31.38</v>
+        <v>28.28</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D3" t="n">
-        <v>32.77</v>
+        <v>31.38</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="D4" t="n">
-        <v>5.59</v>
+        <v>32.77</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>0.19</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
@@ -600,6 +617,2984 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>131.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.4771</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0726</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0412</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银养老产业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7444</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1281</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002363</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>107.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9483</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012159</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9000</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012888</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8850</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>60.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6969</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010393</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5740</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5730</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4422</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4192</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012284</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>光大保德信健康优加混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4033</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3157</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2757</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002364</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>27.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2405</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2369</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2365</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159647</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2174</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2168</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1808</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002144</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>19.79</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>22.13</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1801</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1800</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012238</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银养老产业股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1758</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012160</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通资管健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1755</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001716</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>68.39</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1422</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010394</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1300</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011948</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1262</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1241</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>163503</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>天治核心成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.96</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003581</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012889</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>60.10</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>562390</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>银华中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001312</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>22.13</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012036</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>诺德兴远优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>68.83</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>561510</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013940</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东吴医疗服务股票A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>58.14</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001997</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>68.39</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>38.30</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>57.67</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013941</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东吴医疗服务股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>38.30</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011523</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>新疆前海联合产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011788</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>工银聚益混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>39.28</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011524</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>新疆前海联合产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>015139</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>泰康医疗健康股票A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013920</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005237</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007111</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>29.28</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005238</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>015140</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>泰康医疗健康股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>013921</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>58.14</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>015774</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>016352</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011789</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>工银聚益混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>39.28</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3693,7 +6688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8385,7 +11380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9581,7 +12576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10093,7 +13088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10339,7 +13334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10623,7 +13618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000999-华润三九.xlsx
+++ b/数据整理/stocks/A股/深证主板/000999-华润三九.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D2" t="n">
-        <v>28.28</v>
+        <v>25.52</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D3" t="n">
-        <v>31.38</v>
+        <v>28.28</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D4" t="n">
-        <v>32.77</v>
+        <v>31.38</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="D5" t="n">
-        <v>5.59</v>
+        <v>32.77</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>0.19</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
@@ -616,7 +633,3765 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H95"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>141.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.2802</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8768</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5538</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银养老产业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1420</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7919</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012888</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7438</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002363</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7256</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>560080</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中证中药 ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7125</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6157</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5390</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010393</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4965</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4791</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161616</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通医疗保健行业混合A/B</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4497</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006003</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4240</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3923</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>75.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3713</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012160</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通资管健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3251</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012238</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银养老产业股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2608</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012159</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通资管健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2602</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2558</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159647</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2396</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011738</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>53.71</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2140</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1994</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002364</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>23.84</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1979</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1765</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011673</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002144</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>15.28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>23.65</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1375</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011739</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>53.71</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003581</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.12</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1185</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011948</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1184</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010394</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012577</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国诚益回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001312</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>23.65</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012889</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001753</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>红土创新新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>66.35</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012576</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国诚益回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>016163</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>万家欣远混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>67.94</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011601</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014333</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>561510</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>96.27</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013678</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>25.56</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009400</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华安添瑞6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>39.08</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>400007</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>东方策略成长混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011602</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>014466</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>工银行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009275</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>融通医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>562390</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>银华中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>97.84</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013878</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>39.08</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001715</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>工银新焦点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>72.26</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>013679</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>25.56</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>52.32</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>014467</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>工银行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002594</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>工银瑞信现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>80.34</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011674</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001998</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>工银新焦点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>016164</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>万家欣远混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>67.94</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007111</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011788</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>工银聚益混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>38.85</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>014750</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>兴华消费精选6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>014334</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>工银优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009401</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华安添瑞6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>015562</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009409</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华安添福18个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>015774</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>015655</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>富荣医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>013879</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>98.12</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>009410</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华安添福18个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>014751</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>兴华消费精选6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>015656</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>富荣医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011789</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>工银聚益混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>38.85</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3594,7 +7369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6688,7 +10463,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11380,7 +15155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12576,7 +16351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13088,7 +16863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13334,7 +17109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13616,136 +17391,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>501011</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富中证中药指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0630</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>501012</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富中证中药指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0118</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>